--- a/source-data/all-data-table.xlsx
+++ b/source-data/all-data-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienblanchet/dev/operational-research/team-project/source-data/port-distance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien/dev/engs103-operations-research/team-project/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689318C5-6E72-2249-AB3E-6A2F99652138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47781A18-E0DA-BD41-AF6F-C6FECAA7A04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="26040" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57200" yWindow="-6160" windowWidth="37320" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="distance-table" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="96">
   <si>
     <t>Destination</t>
   </si>
@@ -284,17 +284,55 @@
   </si>
   <si>
     <t>% Covered by Market</t>
+  </si>
+  <si>
+    <t>MIP Gap</t>
+  </si>
+  <si>
+    <t>Extra Constraints</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>At knots 5,000 TEU 8,000 TEU 12,000 TEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 23,100 29,000 </t>
+  </si>
+  <si>
+    <t>5000 TEU</t>
+  </si>
+  <si>
+    <t>8000 TEU</t>
+  </si>
+  <si>
+    <t>18 knots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97 / TEU / day </t>
+  </si>
+  <si>
+    <t>Integer Cargo</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Cost / TEU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +481,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -859,7 +903,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -905,8 +949,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -934,6 +979,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,15 +1004,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="25" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="29" builtinId="38" customBuiltin="1"/>
@@ -989,6 +1044,7 @@
     <cellStyle name="Calculation" xfId="13" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="15" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="45" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="18" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
@@ -1317,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,6 +1384,7 @@
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" customWidth="1"/>
@@ -1337,14 +1394,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -1405,14 +1462,14 @@
       <c r="F4" s="3">
         <v>4576</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1854,11 +1911,11 @@
       <c r="F21" s="3">
         <v>4576</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -2158,13 +2215,13 @@
       <c r="F32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="23"/>
       <c r="P32" s="6"/>
       <c r="R32" s="7"/>
@@ -2236,11 +2293,11 @@
       <c r="L34" s="18">
         <v>0.13750000000000001</v>
       </c>
-      <c r="M34" s="34">
+      <c r="M34" s="28">
         <f>0.7</f>
         <v>0.7</v>
       </c>
-      <c r="N34" s="35">
+      <c r="N34" s="29">
         <v>94244</v>
       </c>
     </row>
@@ -2275,11 +2332,11 @@
       <c r="L35" s="18">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="28">
         <f t="shared" ref="M35:M45" si="0">0.7</f>
         <v>0.7</v>
       </c>
-      <c r="N35" s="35">
+      <c r="N35" s="29">
         <v>15439</v>
       </c>
     </row>
@@ -2302,11 +2359,11 @@
       <c r="L36" s="18">
         <v>0.2321</v>
       </c>
-      <c r="M36" s="34">
+      <c r="M36" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N36" s="35">
+      <c r="N36" s="29">
         <v>53141</v>
       </c>
     </row>
@@ -2341,11 +2398,11 @@
       <c r="L37" s="18">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N37" s="35">
+      <c r="N37" s="29">
         <v>95588</v>
       </c>
     </row>
@@ -2380,20 +2437,20 @@
       <c r="L38" s="18">
         <v>0.16750000000000001</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N38" s="29">
         <v>96731</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="P38" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="37" t="s">
+      <c r="Q38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="38">
+      <c r="R38" s="32">
         <v>94244</v>
       </c>
     </row>
@@ -2428,11 +2485,11 @@
       <c r="L39" s="18">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N39" s="35">
+      <c r="N39" s="29">
         <v>15415</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -2441,7 +2498,7 @@
       <c r="Q39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R39" s="35">
+      <c r="R39" s="29">
         <v>15439</v>
       </c>
     </row>
@@ -2476,11 +2533,11 @@
       <c r="L40" s="18">
         <v>0.16320000000000001</v>
       </c>
-      <c r="M40" s="34">
+      <c r="M40" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N40" s="35">
+      <c r="N40" s="29">
         <v>25323</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -2489,7 +2546,7 @@
       <c r="Q40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R40" s="35">
+      <c r="R40" s="29">
         <v>53141</v>
       </c>
     </row>
@@ -2524,11 +2581,11 @@
       <c r="L41" s="18">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N41" s="35">
+      <c r="N41" s="29">
         <v>3336</v>
       </c>
       <c r="P41" s="2" t="s">
@@ -2537,7 +2594,7 @@
       <c r="Q41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="35">
+      <c r="R41" s="29">
         <v>95588</v>
       </c>
     </row>
@@ -2572,11 +2629,11 @@
       <c r="L42" s="18">
         <v>0.16750000000000001</v>
       </c>
-      <c r="M42" s="34">
+      <c r="M42" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="29">
         <v>212515</v>
       </c>
       <c r="P42" s="2" t="s">
@@ -2585,7 +2642,7 @@
       <c r="Q42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="29">
         <v>96731</v>
       </c>
     </row>
@@ -2620,11 +2677,11 @@
       <c r="L43" s="18">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N43" s="35">
+      <c r="N43" s="29">
         <v>34870</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -2633,7 +2690,7 @@
       <c r="Q43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R43" s="35">
+      <c r="R43" s="29">
         <v>15415</v>
       </c>
     </row>
@@ -2668,11 +2725,11 @@
       <c r="L44" s="18">
         <v>0.12720000000000001</v>
       </c>
-      <c r="M44" s="34">
+      <c r="M44" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N44" s="35">
+      <c r="N44" s="29">
         <v>29680</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -2681,7 +2738,7 @@
       <c r="Q44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R44" s="35">
+      <c r="R44" s="29">
         <v>25323</v>
       </c>
     </row>
@@ -2716,11 +2773,11 @@
       <c r="L45" s="18">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N45" s="35">
+      <c r="N45" s="29">
         <v>37037</v>
       </c>
       <c r="P45" s="2" t="s">
@@ -2729,7 +2786,7 @@
       <c r="Q45" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="29">
         <v>3336</v>
       </c>
     </row>
@@ -2761,7 +2818,7 @@
         <v>175.40100000000004</v>
       </c>
       <c r="L46" s="11"/>
-      <c r="M46" s="33"/>
+      <c r="M46" s="27"/>
       <c r="N46" s="3">
         <f>SUM(N34:N45)</f>
         <v>713319</v>
@@ -2772,7 +2829,7 @@
       <c r="Q46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="35">
+      <c r="R46" s="29">
         <v>212515</v>
       </c>
     </row>
@@ -2809,7 +2866,7 @@
       <c r="Q47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R47" s="35">
+      <c r="R47" s="29">
         <v>34870</v>
       </c>
     </row>
@@ -2846,7 +2903,7 @@
       <c r="Q48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="29">
         <v>29680</v>
       </c>
     </row>
@@ -2883,7 +2940,7 @@
       <c r="Q49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="R49" s="39">
+      <c r="R49" s="33">
         <v>37037</v>
       </c>
     </row>
@@ -3327,24 +3384,24 @@
       <c r="F67" s="3">
         <v>369</v>
       </c>
-      <c r="I67" s="27" t="s">
+      <c r="I67" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="29"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="36"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -3949,7 +4006,7 @@
         <v>7288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>24</v>
       </c>
@@ -3968,8 +4025,26 @@
       <c r="F81" s="3">
         <v>7127</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>24</v>
       </c>
@@ -3988,8 +4063,26 @@
       <c r="F82" s="3">
         <v>5516</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" s="43">
+        <v>49151114</v>
+      </c>
+      <c r="P82" s="41">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="Q82" s="48">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>24</v>
       </c>
@@ -4008,8 +4101,26 @@
       <c r="F83" s="3">
         <v>1162</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="43">
+        <v>50487938</v>
+      </c>
+      <c r="P83" s="41">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="Q83" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>24</v>
       </c>
@@ -4028,8 +4139,26 @@
       <c r="F84" s="3">
         <v>1162</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" s="43">
+        <v>47733245</v>
+      </c>
+      <c r="P84" s="41">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="Q84" s="48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>24</v>
       </c>
@@ -4048,8 +4177,26 @@
       <c r="F85" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" s="43">
+        <v>51993413</v>
+      </c>
+      <c r="P85" s="41">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q85" s="48">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -4068,6 +4215,426 @@
       <c r="F86" s="5">
         <v>812</v>
       </c>
+      <c r="L86" s="2">
+        <v>5</v>
+      </c>
+      <c r="M86" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" s="43">
+        <v>41536617</v>
+      </c>
+      <c r="P86" s="41">
+        <v>0.8548</v>
+      </c>
+      <c r="Q86" s="48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L87" s="2">
+        <v>5</v>
+      </c>
+      <c r="M87" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" s="43">
+        <v>40844941</v>
+      </c>
+      <c r="P87" s="41">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="Q87" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L88" s="2">
+        <v>5</v>
+      </c>
+      <c r="M88" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" s="43">
+        <v>41611437</v>
+      </c>
+      <c r="P88" s="41">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="Q88" s="48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L89" s="2">
+        <v>5</v>
+      </c>
+      <c r="M89" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" s="43">
+        <v>40690253</v>
+      </c>
+      <c r="P89" s="41">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="Q89" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L90" s="2">
+        <v>10</v>
+      </c>
+      <c r="M90" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" s="43">
+        <v>41258217</v>
+      </c>
+      <c r="P90" s="41">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="Q90" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L91" s="2">
+        <v>10</v>
+      </c>
+      <c r="M91" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="43">
+        <v>40422633</v>
+      </c>
+      <c r="P91" s="41">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="Q91" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L92" s="2">
+        <v>10</v>
+      </c>
+      <c r="M92" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" s="43">
+        <v>41006543</v>
+      </c>
+      <c r="P92" s="41">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="Q92" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L93" s="2">
+        <v>10</v>
+      </c>
+      <c r="M93" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" s="43">
+        <v>40451718</v>
+      </c>
+      <c r="P93" s="41">
+        <v>3.09E-2</v>
+      </c>
+      <c r="Q93" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L94" s="2">
+        <v>20</v>
+      </c>
+      <c r="M94" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="43">
+        <v>40756265</v>
+      </c>
+      <c r="P94" s="41">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="Q94" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L95" s="2">
+        <v>20</v>
+      </c>
+      <c r="M95" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95" s="43">
+        <v>40391250</v>
+      </c>
+      <c r="P95" s="41">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="Q95" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L96" s="2">
+        <v>20</v>
+      </c>
+      <c r="M96" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="43">
+        <v>40746746</v>
+      </c>
+      <c r="P96" s="41">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="Q96" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L97" s="2">
+        <v>20</v>
+      </c>
+      <c r="M97" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" s="43">
+        <v>40369695</v>
+      </c>
+      <c r="P97" s="41">
+        <v>2.64E-2</v>
+      </c>
+      <c r="Q97" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L98" s="2">
+        <v>40</v>
+      </c>
+      <c r="M98" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" s="43">
+        <v>40681931</v>
+      </c>
+      <c r="P98" s="41">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="Q98" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L99" s="2">
+        <v>40</v>
+      </c>
+      <c r="M99" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" s="43">
+        <v>40329271</v>
+      </c>
+      <c r="P99" s="41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q99" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L100" s="2">
+        <v>40</v>
+      </c>
+      <c r="M100" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="43">
+        <v>40711483</v>
+      </c>
+      <c r="P100" s="41">
+        <v>0.7107</v>
+      </c>
+      <c r="Q100" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L101" s="4">
+        <v>40</v>
+      </c>
+      <c r="M101" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" s="44">
+        <v>40336821</v>
+      </c>
+      <c r="P101" s="42">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q101" s="49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="12:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="L112" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="11:21" ht="25" x14ac:dyDescent="0.25">
+      <c r="L113" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>89</v>
+      </c>
+      <c r="N117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L118" s="46">
+        <f>N118-M118</f>
+        <v>5900</v>
+      </c>
+      <c r="M118" s="40">
+        <v>23100</v>
+      </c>
+      <c r="N118" s="40">
+        <v>29000</v>
+      </c>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="L119" s="46">
+        <f>L118/3000</f>
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="U119" s="7"/>
+    </row>
+    <row r="120" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="L120" t="s">
+        <v>92</v>
+      </c>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="L121" s="47">
+        <f>L119/(18*24)</f>
+        <v>4.5524691358024691E-3</v>
+      </c>
+      <c r="U121" s="7"/>
+    </row>
+    <row r="122" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U122" s="7"/>
+    </row>
+    <row r="123" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U123" s="7"/>
+    </row>
+    <row r="124" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U124" s="7"/>
+    </row>
+    <row r="125" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U125" s="7"/>
+    </row>
+    <row r="126" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U126" s="7"/>
+    </row>
+    <row r="127" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U127" s="7"/>
+    </row>
+    <row r="128" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="U128" s="7"/>
+    </row>
+    <row r="129" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U129" s="7"/>
+    </row>
+    <row r="130" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U130" s="7"/>
+    </row>
+    <row r="131" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U131" s="7"/>
+    </row>
+    <row r="132" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U132" s="7"/>
+    </row>
+    <row r="133" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U133" s="7"/>
+    </row>
+    <row r="134" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U135" s="7"/>
+    </row>
+    <row r="136" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U136" s="7"/>
+    </row>
+    <row r="137" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U137" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4078,6 +4645,18 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K21:M21"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q82:Q101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I48" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I50" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
